--- a/Process/components.xlsx
+++ b/Process/components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05.MyProjects\self-contained light module\Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NeedOnline\MyProjects\self-contained light module\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C75DA879-E96C-4796-9FDE-A0D34263CA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D737D-364A-4DF6-96A3-D31C9DC115BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A1C9D1E-F58E-421B-93ED-7D03752BD073}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A1C9D1E-F58E-421B-93ED-7D03752BD073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>¥0.52</t>
   </si>
   <si>
-    <t>TCP4056 Module</t>
-  </si>
-  <si>
     <t>https://detail.1688.com/offer/824257345417.html?spm=a26352.13672862.offerlist.85.6df01e62FUv96c</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/632288211832.html?spm=a26352.13672862.offerlist.22.5e291e62K6JfMV</t>
+  </si>
+  <si>
+    <t>TP4056 Module</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -604,13 +604,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -646,13 +646,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -660,13 +660,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -688,13 +688,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,13 +702,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
